--- a/Backend/uploads/Test Data 3.xlsx
+++ b/Backend/uploads/Test Data 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raghav/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7406267B-113C-054F-8B2B-6F60D9750F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EB6EB2-2A82-4F4A-A840-65B277D08FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{64139431-5CF8-457C-8E51-C564E81C114F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Sl.No</t>
   </si>
@@ -756,7 +756,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -807,9 +807,7 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2">
         <v>1</v>
       </c>

--- a/Backend/uploads/Test Data 3.xlsx
+++ b/Backend/uploads/Test Data 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raghav/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EB6EB2-2A82-4F4A-A840-65B277D08FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91810F2A-BD6E-5041-BE1D-050C9437C453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{64139431-5CF8-457C-8E51-C564E81C114F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>Sl.No</t>
   </si>
@@ -185,7 +185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -201,9 +201,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
@@ -756,7 +753,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -858,10 +855,10 @@
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F4">
@@ -876,87 +873,182 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="H9" s="5"/>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>